--- a/resultados/Venda de Drone/Sem SPAD 1 Drones/vel40/field_16ha_100ha_18%_6m_0_TSP/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Sem SPAD 1 Drones/vel40/field_16ha_100ha_18%_6m_0_TSP/Planilha_Unificada.xlsx
@@ -1877,28 +1877,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>551.8777952502712</v>
+        <v>757.368411090025</v>
       </c>
       <c r="AB2" t="n">
-        <v>755.1035465914141</v>
+        <v>1036.264872789518</v>
       </c>
       <c r="AC2" t="n">
-        <v>683.0375238992127</v>
+        <v>937.3652077373688</v>
       </c>
       <c r="AD2" t="n">
-        <v>551877.7952502712</v>
+        <v>757368.411090025</v>
       </c>
       <c r="AE2" t="n">
-        <v>755103.5465914141</v>
+        <v>1036264.872789518</v>
       </c>
       <c r="AF2" t="n">
         <v>3.959768237366672e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>40</v>
+        <v>39.63541666666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>683037.5238992127</v>
+        <v>937365.2077373688</v>
       </c>
     </row>
     <row r="3">
@@ -1983,28 +1983,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>418.727583215528</v>
+        <v>575.2424383146164</v>
       </c>
       <c r="AB3" t="n">
-        <v>572.9215523127019</v>
+        <v>787.0720820073547</v>
       </c>
       <c r="AC3" t="n">
-        <v>518.2427234604259</v>
+        <v>711.9550271631771</v>
       </c>
       <c r="AD3" t="n">
-        <v>418727.583215528</v>
+        <v>575242.4383146163</v>
       </c>
       <c r="AE3" t="n">
-        <v>572921.5523127019</v>
+        <v>787072.0820073547</v>
       </c>
       <c r="AF3" t="n">
         <v>5.002551605091946e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>32</v>
+        <v>31.38020833333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>518242.7234604258</v>
+        <v>711955.027163177</v>
       </c>
     </row>
     <row r="4">
@@ -2089,28 +2089,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>382.8727582623648</v>
+        <v>529.5990920911047</v>
       </c>
       <c r="AB4" t="n">
-        <v>523.8633990085452</v>
+        <v>724.6208420620264</v>
       </c>
       <c r="AC4" t="n">
-        <v>473.8666114540672</v>
+        <v>655.4640459073652</v>
       </c>
       <c r="AD4" t="n">
-        <v>382872.7582623648</v>
+        <v>529599.0920911047</v>
       </c>
       <c r="AE4" t="n">
-        <v>523863.3990085452</v>
+        <v>724620.8420620265</v>
       </c>
       <c r="AF4" t="n">
         <v>5.357539123061074e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>30</v>
+        <v>29.296875</v>
       </c>
       <c r="AH4" t="n">
-        <v>473866.6114540672</v>
+        <v>655464.0459073652</v>
       </c>
     </row>
     <row r="5">
@@ -2195,28 +2195,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>383.2303834932231</v>
+        <v>529.9567173219631</v>
       </c>
       <c r="AB5" t="n">
-        <v>524.3527176267172</v>
+        <v>725.1101606801985</v>
       </c>
       <c r="AC5" t="n">
-        <v>474.3092301900839</v>
+        <v>655.9066646433819</v>
       </c>
       <c r="AD5" t="n">
-        <v>383230.3834932231</v>
+        <v>529956.717321963</v>
       </c>
       <c r="AE5" t="n">
-        <v>524352.7176267172</v>
+        <v>725110.1606801986</v>
       </c>
       <c r="AF5" t="n">
         <v>5.356996697312055e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>30</v>
+        <v>29.296875</v>
       </c>
       <c r="AH5" t="n">
-        <v>474309.2301900839</v>
+        <v>655906.6646433818</v>
       </c>
     </row>
   </sheetData>
@@ -2492,28 +2492,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>469.8019823833998</v>
+        <v>643.9503818588607</v>
       </c>
       <c r="AB2" t="n">
-        <v>642.8037984976495</v>
+        <v>881.081321545129</v>
       </c>
       <c r="AC2" t="n">
-        <v>581.4555061498305</v>
+        <v>796.9921568222626</v>
       </c>
       <c r="AD2" t="n">
-        <v>469801.9823833999</v>
+        <v>643950.3818588607</v>
       </c>
       <c r="AE2" t="n">
-        <v>642803.7984976495</v>
+        <v>881081.3215451289</v>
       </c>
       <c r="AF2" t="n">
         <v>4.857381488943805e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>36</v>
+        <v>35.36458333333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>581455.5061498305</v>
+        <v>796992.1568222626</v>
       </c>
     </row>
     <row r="3">
@@ -2598,28 +2598,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>372.8295029981933</v>
+        <v>517.9362550233299</v>
       </c>
       <c r="AB3" t="n">
-        <v>510.1217740789545</v>
+        <v>708.663233857839</v>
       </c>
       <c r="AC3" t="n">
-        <v>461.4364679212648</v>
+        <v>641.0294094335416</v>
       </c>
       <c r="AD3" t="n">
-        <v>372829.5029981933</v>
+        <v>517936.2550233299</v>
       </c>
       <c r="AE3" t="n">
-        <v>510121.7740789545</v>
+        <v>708663.233857839</v>
       </c>
       <c r="AF3" t="n">
         <v>5.863914658442281e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>30</v>
+        <v>29.296875</v>
       </c>
       <c r="AH3" t="n">
-        <v>461436.4679212648</v>
+        <v>641029.4094335416</v>
       </c>
     </row>
     <row r="4">
@@ -2704,28 +2704,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>371.6594173079107</v>
+        <v>516.7661693330473</v>
       </c>
       <c r="AB4" t="n">
-        <v>508.5208112169722</v>
+        <v>707.0622709958568</v>
       </c>
       <c r="AC4" t="n">
-        <v>459.9882987078648</v>
+        <v>639.5812402201415</v>
       </c>
       <c r="AD4" t="n">
-        <v>371659.4173079107</v>
+        <v>516766.1693330472</v>
       </c>
       <c r="AE4" t="n">
-        <v>508520.8112169722</v>
+        <v>707062.2709958568</v>
       </c>
       <c r="AF4" t="n">
         <v>5.904009801405989e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>30</v>
+        <v>29.08854166666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>459988.2987078648</v>
+        <v>639581.2402201415</v>
       </c>
     </row>
   </sheetData>
@@ -3001,28 +3001,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>354.4104156759129</v>
+        <v>494.6753219641063</v>
       </c>
       <c r="AB2" t="n">
-        <v>484.9199662118275</v>
+        <v>676.8365990462682</v>
       </c>
       <c r="AC2" t="n">
-        <v>438.6398852260171</v>
+        <v>612.2402639794248</v>
       </c>
       <c r="AD2" t="n">
-        <v>354410.4156759129</v>
+        <v>494675.3219641063</v>
       </c>
       <c r="AE2" t="n">
-        <v>484919.9662118275</v>
+        <v>676836.5990462683</v>
       </c>
       <c r="AF2" t="n">
         <v>7.917543269300439e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>31</v>
+        <v>30.28645833333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>438639.8852260171</v>
+        <v>612240.2639794247</v>
       </c>
     </row>
   </sheetData>
@@ -3298,28 +3298,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>356.7204007671153</v>
+        <v>508.373191985216</v>
       </c>
       <c r="AB2" t="n">
-        <v>488.0805897229606</v>
+        <v>695.5786291165261</v>
       </c>
       <c r="AC2" t="n">
-        <v>441.4988632652105</v>
+        <v>629.1935810043814</v>
       </c>
       <c r="AD2" t="n">
-        <v>356720.4007671154</v>
+        <v>508373.1919852159</v>
       </c>
       <c r="AE2" t="n">
-        <v>488080.5897229606</v>
+        <v>695578.6291165261</v>
       </c>
       <c r="AF2" t="n">
         <v>6.945544936642192e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>30</v>
+        <v>29.89583333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>441498.8632652105</v>
+        <v>629193.5810043814</v>
       </c>
     </row>
     <row r="3">
@@ -3404,28 +3404,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>354.6115139719561</v>
+        <v>496.7485806726541</v>
       </c>
       <c r="AB3" t="n">
-        <v>485.1951177723046</v>
+        <v>679.6733230770225</v>
       </c>
       <c r="AC3" t="n">
-        <v>438.8887767077398</v>
+        <v>614.8062550500509</v>
       </c>
       <c r="AD3" t="n">
-        <v>354611.5139719561</v>
+        <v>496748.5806726541</v>
       </c>
       <c r="AE3" t="n">
-        <v>485195.1177723046</v>
+        <v>679673.3230770224</v>
       </c>
       <c r="AF3" t="n">
         <v>7.049648797260497e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>30</v>
+        <v>29.453125</v>
       </c>
       <c r="AH3" t="n">
-        <v>438888.7767077398</v>
+        <v>614806.2550500509</v>
       </c>
     </row>
   </sheetData>
@@ -3701,28 +3701,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>357.8594158291127</v>
+        <v>515.062219241563</v>
       </c>
       <c r="AB2" t="n">
-        <v>489.6390403805834</v>
+        <v>704.7308513077155</v>
       </c>
       <c r="AC2" t="n">
-        <v>442.9085775793691</v>
+        <v>637.4723279548684</v>
       </c>
       <c r="AD2" t="n">
-        <v>357859.4158291126</v>
+        <v>515062.219241563</v>
       </c>
       <c r="AE2" t="n">
-        <v>489639.0403805834</v>
+        <v>704730.8513077155</v>
       </c>
       <c r="AF2" t="n">
         <v>8.638958517354529e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>32</v>
+        <v>31.77083333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>442908.5775793691</v>
+        <v>637472.3279548684</v>
       </c>
     </row>
   </sheetData>
@@ -3998,28 +3998,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>489.5754587655753</v>
+        <v>673.9094533980179</v>
       </c>
       <c r="AB2" t="n">
-        <v>669.858741227953</v>
+        <v>922.072644925959</v>
       </c>
       <c r="AC2" t="n">
-        <v>605.9283631178045</v>
+        <v>834.0713258313099</v>
       </c>
       <c r="AD2" t="n">
-        <v>489575.4587655753</v>
+        <v>673909.4533980179</v>
       </c>
       <c r="AE2" t="n">
-        <v>669858.741227953</v>
+        <v>922072.6449259591</v>
       </c>
       <c r="AF2" t="n">
         <v>4.608051770093273e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>37</v>
+        <v>36.38020833333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>605928.3631178044</v>
+        <v>834071.3258313099</v>
       </c>
     </row>
     <row r="3">
@@ -4104,28 +4104,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>378.3754073541637</v>
+        <v>524.0093378365652</v>
       </c>
       <c r="AB3" t="n">
-        <v>517.7099250868254</v>
+        <v>716.9726936884119</v>
       </c>
       <c r="AC3" t="n">
-        <v>468.3004164469814</v>
+        <v>648.5458260802849</v>
       </c>
       <c r="AD3" t="n">
-        <v>378375.4073541637</v>
+        <v>524009.3378365652</v>
       </c>
       <c r="AE3" t="n">
-        <v>517709.9250868254</v>
+        <v>716972.693688412</v>
       </c>
       <c r="AF3" t="n">
         <v>5.655201707290683e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>30</v>
+        <v>29.63541666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>468300.4164469814</v>
+        <v>648545.8260802849</v>
       </c>
     </row>
     <row r="4">
@@ -4210,28 +4210,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>374.2589289028549</v>
+        <v>510.150776297506</v>
       </c>
       <c r="AB4" t="n">
-        <v>512.0775776635326</v>
+        <v>698.0107983940865</v>
       </c>
       <c r="AC4" t="n">
-        <v>463.2056123567184</v>
+        <v>631.3936274596624</v>
       </c>
       <c r="AD4" t="n">
-        <v>374258.9289028549</v>
+        <v>510150.7762975059</v>
       </c>
       <c r="AE4" t="n">
-        <v>512077.5776635325</v>
+        <v>698010.7983940864</v>
       </c>
       <c r="AF4" t="n">
         <v>5.770972524462397e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>30</v>
+        <v>29.03645833333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>463205.6123567184</v>
+        <v>631393.6274596624</v>
       </c>
     </row>
   </sheetData>
@@ -4507,28 +4507,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>373.5027391685575</v>
+        <v>529.6230661152567</v>
       </c>
       <c r="AB2" t="n">
-        <v>511.0429255083301</v>
+        <v>724.6536443795305</v>
       </c>
       <c r="AC2" t="n">
-        <v>462.2697059510651</v>
+        <v>655.4937176177249</v>
       </c>
       <c r="AD2" t="n">
-        <v>373502.7391685575</v>
+        <v>529623.0661152567</v>
       </c>
       <c r="AE2" t="n">
-        <v>511042.9255083302</v>
+        <v>724653.6443795306</v>
       </c>
       <c r="AF2" t="n">
         <v>9.062477282441168e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>34</v>
+        <v>33.15104166666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>462269.7059510651</v>
+        <v>655493.7176177249</v>
       </c>
     </row>
   </sheetData>
@@ -4804,28 +4804,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>411.1140176701859</v>
+        <v>564.4617983999702</v>
       </c>
       <c r="AB2" t="n">
-        <v>562.5043360467586</v>
+        <v>772.3215348678696</v>
       </c>
       <c r="AC2" t="n">
-        <v>508.8197116942493</v>
+        <v>698.6122515401614</v>
       </c>
       <c r="AD2" t="n">
-        <v>411114.0176701859</v>
+        <v>564461.7983999703</v>
       </c>
       <c r="AE2" t="n">
-        <v>562504.3360467586</v>
+        <v>772321.5348678696</v>
       </c>
       <c r="AF2" t="n">
         <v>5.777016072759399e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>33</v>
+        <v>32.31770833333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>508819.7116942493</v>
+        <v>698612.2515401614</v>
       </c>
     </row>
     <row r="3">
@@ -4910,28 +4910,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>363.061929904455</v>
+        <v>506.7871014318655</v>
       </c>
       <c r="AB3" t="n">
-        <v>496.7573496571891</v>
+        <v>693.4084700480553</v>
       </c>
       <c r="AC3" t="n">
-        <v>449.3475254092254</v>
+        <v>627.230538871568</v>
       </c>
       <c r="AD3" t="n">
-        <v>363061.929904455</v>
+        <v>506787.1014318655</v>
       </c>
       <c r="AE3" t="n">
-        <v>496757.3496571891</v>
+        <v>693408.4700480553</v>
       </c>
       <c r="AF3" t="n">
         <v>6.415496673422842e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>30</v>
+        <v>29.11458333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>449347.5254092254</v>
+        <v>627230.538871568</v>
       </c>
     </row>
   </sheetData>
@@ -5207,28 +5207,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>449.7233025774697</v>
+        <v>613.7245201380745</v>
       </c>
       <c r="AB2" t="n">
-        <v>615.3312629783402</v>
+        <v>839.7249640678416</v>
       </c>
       <c r="AC2" t="n">
-        <v>556.6049108625383</v>
+        <v>759.5827920585953</v>
       </c>
       <c r="AD2" t="n">
-        <v>449723.3025774697</v>
+        <v>613724.5201380744</v>
       </c>
       <c r="AE2" t="n">
-        <v>615331.2629783401</v>
+        <v>839724.9640678416</v>
       </c>
       <c r="AF2" t="n">
         <v>5.138393914575466e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>35</v>
+        <v>34.296875</v>
       </c>
       <c r="AH2" t="n">
-        <v>556604.9108625383</v>
+        <v>759582.7920585952</v>
       </c>
     </row>
     <row r="3">
@@ -5313,28 +5313,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>368.4717149694621</v>
+        <v>513.1365862444261</v>
       </c>
       <c r="AB3" t="n">
-        <v>504.159256246005</v>
+        <v>702.0961152881007</v>
       </c>
       <c r="AC3" t="n">
-        <v>456.0430044218458</v>
+        <v>635.0890474430903</v>
       </c>
       <c r="AD3" t="n">
-        <v>368471.7149694621</v>
+        <v>513136.5862444261</v>
       </c>
       <c r="AE3" t="n">
-        <v>504159.2562460051</v>
+        <v>702096.1152881007</v>
       </c>
       <c r="AF3" t="n">
         <v>6.059590252335255e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>30</v>
+        <v>29.08854166666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>456043.0044218458</v>
+        <v>635089.0474430902</v>
       </c>
     </row>
     <row r="4">
@@ -5419,28 +5419,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>368.8847064698163</v>
+        <v>513.5495777447802</v>
       </c>
       <c r="AB4" t="n">
-        <v>504.7243294366886</v>
+        <v>702.6611884787843</v>
       </c>
       <c r="AC4" t="n">
-        <v>456.5541478202958</v>
+        <v>635.6001908415402</v>
       </c>
       <c r="AD4" t="n">
-        <v>368884.7064698163</v>
+        <v>513549.5777447802</v>
       </c>
       <c r="AE4" t="n">
-        <v>504724.3294366886</v>
+        <v>702661.1884787843</v>
       </c>
       <c r="AF4" t="n">
         <v>6.058642658747553e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>30</v>
+        <v>29.08854166666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>456554.1478202958</v>
+        <v>635600.1908415402</v>
       </c>
     </row>
   </sheetData>
@@ -5716,28 +5716,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>529.2216682178354</v>
+        <v>724.3427171079931</v>
       </c>
       <c r="AB2" t="n">
-        <v>724.1044340678532</v>
+        <v>991.0776612925125</v>
       </c>
       <c r="AC2" t="n">
-        <v>654.9969231673728</v>
+        <v>896.4906002849882</v>
       </c>
       <c r="AD2" t="n">
-        <v>529221.6682178354</v>
+        <v>724342.7171079931</v>
       </c>
       <c r="AE2" t="n">
-        <v>724104.4340678531</v>
+        <v>991077.6612925126</v>
       </c>
       <c r="AF2" t="n">
         <v>4.182344578240802e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>39</v>
+        <v>38.30729166666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>654996.9231673727</v>
+        <v>896490.6002849882</v>
       </c>
     </row>
     <row r="3">
@@ -5822,28 +5822,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>402.2013990741564</v>
+        <v>558.3725932837148</v>
       </c>
       <c r="AB3" t="n">
-        <v>550.3096980866892</v>
+        <v>763.9900157910386</v>
       </c>
       <c r="AC3" t="n">
-        <v>497.788912865807</v>
+        <v>691.0758809506626</v>
       </c>
       <c r="AD3" t="n">
-        <v>402201.3990741564</v>
+        <v>558372.5932837147</v>
       </c>
       <c r="AE3" t="n">
-        <v>550309.6980866892</v>
+        <v>763990.0157910385</v>
       </c>
       <c r="AF3" t="n">
         <v>5.198073533820211e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>31</v>
+        <v>30.83333333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>497788.9128658071</v>
+        <v>691075.8809506627</v>
       </c>
     </row>
     <row r="4">
@@ -5928,28 +5928,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>379.8291497201589</v>
+        <v>526.1701891452415</v>
       </c>
       <c r="AB4" t="n">
-        <v>519.6989995265668</v>
+        <v>719.9292657789747</v>
       </c>
       <c r="AC4" t="n">
-        <v>470.0996564138774</v>
+        <v>651.2202270800992</v>
       </c>
       <c r="AD4" t="n">
-        <v>379829.1497201588</v>
+        <v>526170.1891452415</v>
       </c>
       <c r="AE4" t="n">
-        <v>519698.9995265668</v>
+        <v>719929.2657789747</v>
       </c>
       <c r="AF4" t="n">
         <v>5.493415124974874e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>30</v>
+        <v>29.16666666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>470099.6564138774</v>
+        <v>651220.2270800992</v>
       </c>
     </row>
   </sheetData>
@@ -6225,28 +6225,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>374.722851854779</v>
+        <v>527.0045582632953</v>
       </c>
       <c r="AB2" t="n">
-        <v>512.7123375131914</v>
+        <v>721.0708864160634</v>
       </c>
       <c r="AC2" t="n">
-        <v>463.7797916172168</v>
+        <v>652.2528930458589</v>
       </c>
       <c r="AD2" t="n">
-        <v>374722.8518547791</v>
+        <v>527004.5582632953</v>
       </c>
       <c r="AE2" t="n">
-        <v>512712.3375131914</v>
+        <v>721070.8864160634</v>
       </c>
       <c r="AF2" t="n">
         <v>6.514454725739068e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>31</v>
+        <v>30.65104166666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>463779.7916172168</v>
+        <v>652252.8930458588</v>
       </c>
     </row>
     <row r="3">
@@ -6331,28 +6331,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>357.249890145815</v>
+        <v>499.9445347574207</v>
       </c>
       <c r="AB3" t="n">
-        <v>488.8050604503201</v>
+        <v>684.0461684513432</v>
       </c>
       <c r="AC3" t="n">
-        <v>442.1541915231519</v>
+        <v>618.7617621991733</v>
       </c>
       <c r="AD3" t="n">
-        <v>357249.890145815</v>
+        <v>499944.5347574207</v>
       </c>
       <c r="AE3" t="n">
-        <v>488805.0604503201</v>
+        <v>684046.1684513432</v>
       </c>
       <c r="AF3" t="n">
         <v>6.829407993258434e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>30</v>
+        <v>29.24479166666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>442154.1915231519</v>
+        <v>618761.7621991733</v>
       </c>
     </row>
   </sheetData>
@@ -6628,28 +6628,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>348.0554194567781</v>
+        <v>498.4020225175655</v>
       </c>
       <c r="AB2" t="n">
-        <v>476.2247800221612</v>
+        <v>681.935635153936</v>
       </c>
       <c r="AC2" t="n">
-        <v>430.774555402522</v>
+        <v>616.8526552375189</v>
       </c>
       <c r="AD2" t="n">
-        <v>348055.4194567781</v>
+        <v>498402.0225175655</v>
       </c>
       <c r="AE2" t="n">
-        <v>476224.7800221612</v>
+        <v>681935.635153936</v>
       </c>
       <c r="AF2" t="n">
         <v>7.596564922334854e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>30</v>
+        <v>29.89583333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>430774.555402522</v>
+        <v>616852.6552375188</v>
       </c>
     </row>
   </sheetData>
@@ -10994,28 +10994,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>351.5637042538863</v>
+        <v>500.4250175175424</v>
       </c>
       <c r="AB2" t="n">
-        <v>481.0249700561664</v>
+        <v>684.703586161145</v>
       </c>
       <c r="AC2" t="n">
-        <v>435.1166220367907</v>
+        <v>619.3564368854434</v>
       </c>
       <c r="AD2" t="n">
-        <v>351563.7042538863</v>
+        <v>500425.0175175424</v>
       </c>
       <c r="AE2" t="n">
-        <v>481024.9700561664</v>
+        <v>684703.586161145</v>
       </c>
       <c r="AF2" t="n">
         <v>8.257003452161731e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>31</v>
+        <v>30.88541666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>435116.6220367907</v>
+        <v>619356.4368854434</v>
       </c>
     </row>
   </sheetData>
@@ -11291,28 +11291,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>389.2130367669114</v>
+        <v>562.3812995209398</v>
       </c>
       <c r="AB2" t="n">
-        <v>532.5384477718123</v>
+        <v>769.4749045164476</v>
       </c>
       <c r="AC2" t="n">
-        <v>481.7137257388754</v>
+        <v>696.0372995942082</v>
       </c>
       <c r="AD2" t="n">
-        <v>389213.0367669114</v>
+        <v>562381.2995209398</v>
       </c>
       <c r="AE2" t="n">
-        <v>532538.4477718123</v>
+        <v>769474.9045164476</v>
       </c>
       <c r="AF2" t="n">
         <v>9.466192349782798e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>36</v>
+        <v>35.65104166666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>481713.7257388755</v>
+        <v>696037.2995942082</v>
       </c>
     </row>
   </sheetData>
@@ -11588,28 +11588,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>430.857468417021</v>
+        <v>594.3033814582283</v>
       </c>
       <c r="AB2" t="n">
-        <v>589.518196378152</v>
+        <v>813.1521053259073</v>
       </c>
       <c r="AC2" t="n">
-        <v>533.2554071098056</v>
+        <v>735.5460096597496</v>
       </c>
       <c r="AD2" t="n">
-        <v>430857.468417021</v>
+        <v>594303.3814582282</v>
       </c>
       <c r="AE2" t="n">
-        <v>589518.196378152</v>
+        <v>813152.1053259074</v>
       </c>
       <c r="AF2" t="n">
         <v>5.423635971001485e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>34</v>
+        <v>33.41145833333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>533255.4071098056</v>
+        <v>735546.0096597497</v>
       </c>
     </row>
     <row r="3">
@@ -11694,28 +11694,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>366.0318748488459</v>
+        <v>510.2369175056185</v>
       </c>
       <c r="AB3" t="n">
-        <v>500.8209593548283</v>
+        <v>698.1286605953077</v>
       </c>
       <c r="AC3" t="n">
-        <v>453.0233099006339</v>
+        <v>631.5002410578199</v>
       </c>
       <c r="AD3" t="n">
-        <v>366031.8748488459</v>
+        <v>510236.9175056185</v>
       </c>
       <c r="AE3" t="n">
-        <v>500820.9593548283</v>
+        <v>698128.6605953077</v>
       </c>
       <c r="AF3" t="n">
         <v>6.218345382568975e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>30</v>
+        <v>29.140625</v>
       </c>
       <c r="AH3" t="n">
-        <v>453023.3099006339</v>
+        <v>631500.2410578199</v>
       </c>
     </row>
   </sheetData>
@@ -11991,28 +11991,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>509.8014487538153</v>
+        <v>694.6902105935686</v>
       </c>
       <c r="AB2" t="n">
-        <v>697.5328330375652</v>
+        <v>950.5057937032159</v>
       </c>
       <c r="AC2" t="n">
-        <v>630.9612784459392</v>
+        <v>859.7908547954402</v>
       </c>
       <c r="AD2" t="n">
-        <v>509801.4487538153</v>
+        <v>694690.2105935686</v>
       </c>
       <c r="AE2" t="n">
-        <v>697532.8330375652</v>
+        <v>950505.7937032159</v>
       </c>
       <c r="AF2" t="n">
         <v>4.37700068937047e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>38</v>
+        <v>37.421875</v>
       </c>
       <c r="AH2" t="n">
-        <v>630961.2784459392</v>
+        <v>859790.8547954402</v>
       </c>
     </row>
     <row r="3">
@@ -12097,28 +12097,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>395.144052367111</v>
+        <v>541.1216644538055</v>
       </c>
       <c r="AB3" t="n">
-        <v>540.6535249739469</v>
+        <v>740.3865339086894</v>
       </c>
       <c r="AC3" t="n">
-        <v>489.0543113624207</v>
+        <v>669.7250822514701</v>
       </c>
       <c r="AD3" t="n">
-        <v>395144.052367111</v>
+        <v>541121.6644538054</v>
       </c>
       <c r="AE3" t="n">
-        <v>540653.5249739469</v>
+        <v>740386.5339086894</v>
       </c>
       <c r="AF3" t="n">
         <v>5.41631982378077e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>31</v>
+        <v>30.234375</v>
       </c>
       <c r="AH3" t="n">
-        <v>489054.3113624207</v>
+        <v>669725.0822514701</v>
       </c>
     </row>
     <row r="4">
@@ -12203,28 +12203,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>377.2294348582579</v>
+        <v>523.1728815261715</v>
       </c>
       <c r="AB4" t="n">
-        <v>516.1419549611887</v>
+        <v>715.8282172626837</v>
       </c>
       <c r="AC4" t="n">
-        <v>466.8820911894757</v>
+        <v>647.5105768783451</v>
       </c>
       <c r="AD4" t="n">
-        <v>377229.4348582579</v>
+        <v>523172.8815261716</v>
       </c>
       <c r="AE4" t="n">
-        <v>516141.9549611887</v>
+        <v>715828.2172626837</v>
       </c>
       <c r="AF4" t="n">
         <v>5.626107966359143e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>30</v>
+        <v>29.11458333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>466882.0911894757</v>
+        <v>647510.5768783451</v>
       </c>
     </row>
   </sheetData>
@@ -12500,28 +12500,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>443.5053341073453</v>
+        <v>642.0897291400011</v>
       </c>
       <c r="AB2" t="n">
-        <v>606.8235642001074</v>
+        <v>878.5354944089806</v>
       </c>
       <c r="AC2" t="n">
-        <v>548.9091749150699</v>
+        <v>794.6892998548973</v>
       </c>
       <c r="AD2" t="n">
-        <v>443505.3341073453</v>
+        <v>642089.729140001</v>
       </c>
       <c r="AE2" t="n">
-        <v>606823.5642001074</v>
+        <v>878535.4944089806</v>
       </c>
       <c r="AF2" t="n">
         <v>9.55324947740619e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>42</v>
+        <v>41.58854166666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>548909.1749150699</v>
+        <v>794689.2998548973</v>
       </c>
     </row>
   </sheetData>
@@ -12797,28 +12797,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>350.9321238971296</v>
+        <v>492.5787418048476</v>
       </c>
       <c r="AB2" t="n">
-        <v>480.1608139486931</v>
+        <v>673.967965577782</v>
       </c>
       <c r="AC2" t="n">
-        <v>434.334939775364</v>
+        <v>609.6454088630182</v>
       </c>
       <c r="AD2" t="n">
-        <v>350932.1238971296</v>
+        <v>492578.7418048476</v>
       </c>
       <c r="AE2" t="n">
-        <v>480160.8139486931</v>
+        <v>673967.965577782</v>
       </c>
       <c r="AF2" t="n">
         <v>7.322274421349915e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>30</v>
+        <v>29.58333333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>434334.939775364</v>
+        <v>609645.4088630183</v>
       </c>
     </row>
     <row r="3">
@@ -12903,28 +12903,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>350.9613652660565</v>
+        <v>492.6079831737745</v>
       </c>
       <c r="AB3" t="n">
-        <v>480.2008232796971</v>
+        <v>674.007974908786</v>
       </c>
       <c r="AC3" t="n">
-        <v>434.3711306719704</v>
+        <v>609.6815997596248</v>
       </c>
       <c r="AD3" t="n">
-        <v>350961.3652660566</v>
+        <v>492607.9831737746</v>
       </c>
       <c r="AE3" t="n">
-        <v>480200.8232796971</v>
+        <v>674007.974908786</v>
       </c>
       <c r="AF3" t="n">
         <v>7.33807723312288e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>30</v>
+        <v>29.50520833333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>434371.1306719704</v>
+        <v>609681.5997596248</v>
       </c>
     </row>
   </sheetData>
@@ -13200,28 +13200,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>392.9345839777122</v>
+        <v>545.8137511636673</v>
       </c>
       <c r="AB2" t="n">
-        <v>537.6304328487055</v>
+        <v>746.8064539453786</v>
       </c>
       <c r="AC2" t="n">
-        <v>486.3197389066759</v>
+        <v>675.5322941302721</v>
       </c>
       <c r="AD2" t="n">
-        <v>392934.5839777123</v>
+        <v>545813.7511636673</v>
       </c>
       <c r="AE2" t="n">
-        <v>537630.4328487054</v>
+        <v>746806.4539453787</v>
       </c>
       <c r="AF2" t="n">
         <v>6.120551417215447e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>32</v>
+        <v>31.51041666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>486319.7389066759</v>
+        <v>675532.2941302721</v>
       </c>
     </row>
     <row r="3">
@@ -13306,28 +13306,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>360.408163878918</v>
+        <v>503.6308978892656</v>
       </c>
       <c r="AB3" t="n">
-        <v>493.1263499051552</v>
+        <v>689.0900131191969</v>
       </c>
       <c r="AC3" t="n">
-        <v>446.0630631773852</v>
+        <v>623.3242294110077</v>
       </c>
       <c r="AD3" t="n">
-        <v>360408.163878918</v>
+        <v>503630.8978892656</v>
       </c>
       <c r="AE3" t="n">
-        <v>493126.3499051552</v>
+        <v>689090.0131191969</v>
       </c>
       <c r="AF3" t="n">
         <v>6.599720465645247e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>30</v>
+        <v>29.21875</v>
       </c>
       <c r="AH3" t="n">
-        <v>446063.0631773853</v>
+        <v>623324.2294110076</v>
       </c>
     </row>
   </sheetData>
